--- a/C10/yDistConDiv.xlsx
+++ b/C10/yDistConDiv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtgn\Desktop\S19\Thermal Fluids\GitHub\24321-A4\C10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PKBACK# 001/GitHub/24321-A4/C10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE6100A-839F-4D10-8FFA-0D9C51D3B07E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B86A243-F994-0249-9C63-062ECE5C8625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{3E328818-4710-41FA-841F-26791D8FF42F}"/>
+    <workbookView xWindow="9320" yWindow="2880" windowWidth="19400" windowHeight="10400" xr2:uid="{3E328818-4710-41FA-841F-26791D8FF42F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>A8</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>V_flow</t>
   </si>
 </sst>
 </file>
@@ -385,62 +388,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CC26BC-ECC4-4BF6-96A5-171067F5F651}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>20/328</f>
+        <v>6.097560975609756E-2</v>
+      </c>
+      <c r="B1">
+        <f>20/328</f>
+        <v>6.097560975609756E-2</v>
+      </c>
+      <c r="C1">
+        <f>20/135.75</f>
+        <v>0.14732965009208104</v>
+      </c>
+      <c r="D1">
+        <f>20/135.75</f>
+        <v>0.14732965009208104</v>
+      </c>
+      <c r="E1">
+        <f>20/133.5</f>
+        <v>0.14981273408239701</v>
+      </c>
+      <c r="F1">
+        <f>20/133.5</f>
+        <v>0.14981273408239701</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1134</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1127</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1018</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1040</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1154</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1187</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1172</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1079</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1078</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1218</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>1198</v>
       </c>
     </row>
